--- a/tables/comparison_Our_ID3_Library_ID3_corona.xlsx
+++ b/tables/comparison_Our_ID3_Library_ID3_corona.xlsx
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>9.779999999999999</v>
+        <v>7.28</v>
       </c>
       <c r="G2" t="n">
-        <v>0.27</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="3">
@@ -514,10 +514,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.17</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.27</v>
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>

--- a/tables/comparison_Our_ID3_Library_ID3_corona.xlsx
+++ b/tables/comparison_Our_ID3_Library_ID3_corona.xlsx
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.28</v>
+        <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -514,10 +514,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
